--- a/static/download/2023/RP3_FLT_EFF_2023_Jan_Dec.xlsx
+++ b/static/download/2023/RP3_FLT_EFF_2023_Jan_Dec.xlsx
@@ -1352,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>45305.0</v>
+        <v>45415.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B2" s="38">
         <f>FLT_EFF_YY!B2</f>
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2687,10 +2687,10 @@
         <v>0.0448</v>
       </c>
       <c r="C64" s="65">
-        <v>0.043</v>
+        <v>0.0429</v>
       </c>
       <c r="D64" s="58">
-        <v>0.0298</v>
+        <v>0.0299</v>
       </c>
       <c r="E64" s="55">
         <v>1.0</v>
@@ -2704,10 +2704,10 @@
         <v>0.0448</v>
       </c>
       <c r="C65" s="66">
-        <v>0.043</v>
+        <v>0.0429</v>
       </c>
       <c r="D65" s="62">
-        <v>0.0298</v>
+        <v>0.0299</v>
       </c>
       <c r="E65" s="55">
         <v>1.0</v>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B2" s="38">
         <f>FLT_EFF_YY!B2</f>
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -2943,7 +2943,7 @@
         <v>0.0429</v>
       </c>
       <c r="D6" s="86">
-        <v>0.0237</v>
+        <v>0.024</v>
       </c>
       <c r="E6" s="87">
         <v>0.0299</v>
@@ -2955,14 +2955,14 @@
         <v>112</v>
       </c>
       <c r="B7" s="87">
-        <v>0.0756</v>
+        <v>0.0623</v>
       </c>
       <c r="C7" s="87">
-        <v>0.0724</v>
+        <v>0.0587</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="87">
-        <v>0.0539</v>
+        <v>0.0359</v>
       </c>
       <c r="F7" s="88"/>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B2" s="38">
         <f>FLT_EFF_YY!B2</f>
-        <v>45305</v>
+        <v>45415</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -3227,7 +3227,9 @@
       <c r="C6" s="92">
         <v>0.0272</v>
       </c>
-      <c r="D6" s="93"/>
+      <c r="D6" s="93">
+        <v>0.0196</v>
+      </c>
       <c r="E6" s="93">
         <v>0.0211</v>
       </c>
@@ -3243,7 +3245,9 @@
       <c r="C7" s="93">
         <v>0.0587</v>
       </c>
-      <c r="D7" s="92"/>
+      <c r="D7" s="92">
+        <v>0.03</v>
+      </c>
       <c r="E7" s="93">
         <v>0.0359</v>
       </c>
@@ -3259,7 +3263,9 @@
       <c r="C8" s="93">
         <v>0.0387</v>
       </c>
-      <c r="D8" s="92"/>
+      <c r="D8" s="92">
+        <v>0.0225</v>
+      </c>
       <c r="E8" s="93">
         <v>0.034</v>
       </c>
@@ -3275,7 +3281,9 @@
       <c r="C9" s="93">
         <v>0.0165</v>
       </c>
-      <c r="D9" s="92"/>
+      <c r="D9" s="92">
+        <v>0.0146</v>
+      </c>
       <c r="E9" s="93">
         <v>0.0151</v>
       </c>
@@ -3291,7 +3299,9 @@
       <c r="C10" s="93">
         <v>0.0577</v>
       </c>
-      <c r="D10" s="92"/>
+      <c r="D10" s="92">
+        <v>0.0384</v>
+      </c>
       <c r="E10" s="93">
         <v>0.0473</v>
       </c>
@@ -3307,7 +3317,9 @@
       <c r="C11" s="93">
         <v>0.0369</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="92">
+        <v>0.0205</v>
+      </c>
       <c r="E11" s="93">
         <v>0.0261</v>
       </c>
@@ -3323,7 +3335,9 @@
       <c r="C12" s="93">
         <v>0.0229</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="92">
+        <v>0.0114</v>
+      </c>
       <c r="E12" s="93">
         <v>0.0144</v>
       </c>
@@ -3339,7 +3353,9 @@
       <c r="C13" s="92">
         <v>0.0665</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="92">
+        <v>0.0122</v>
+      </c>
       <c r="E13" s="93">
         <v>0.0655</v>
       </c>
@@ -3355,7 +3371,9 @@
       <c r="C14" s="92">
         <v>0.0378</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="92">
+        <v>0.0088</v>
+      </c>
       <c r="E14" s="92">
         <v>0.0339</v>
       </c>
@@ -3371,7 +3389,9 @@
       <c r="C15" s="93">
         <v>0.0554</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="92">
+        <v>0.0283</v>
+      </c>
       <c r="E15" s="93">
         <v>0.0333</v>
       </c>
@@ -3387,7 +3407,9 @@
       <c r="C16" s="93">
         <v>0.0487</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="92">
+        <v>0.023</v>
+      </c>
       <c r="E16" s="93">
         <v>0.0269</v>
       </c>
@@ -3403,7 +3425,9 @@
       <c r="C17" s="93">
         <v>0.0295</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="92">
+        <v>0.0192</v>
+      </c>
       <c r="E17" s="93">
         <v>0.0226</v>
       </c>
@@ -3419,7 +3443,9 @@
       <c r="C18" s="93">
         <v>0.0289</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="92">
+        <v>0.0149</v>
+      </c>
       <c r="E18" s="93">
         <v>0.0211</v>
       </c>
@@ -3435,7 +3461,9 @@
       <c r="C19" s="93">
         <v>0.0193</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="92">
+        <v>0.0113</v>
+      </c>
       <c r="E19" s="93">
         <v>0.0144</v>
       </c>
@@ -3451,7 +3479,9 @@
       <c r="C20" s="93">
         <v>0.0401</v>
       </c>
-      <c r="D20" s="92"/>
+      <c r="D20" s="92">
+        <v>0.0267</v>
+      </c>
       <c r="E20" s="93">
         <v>0.0309</v>
       </c>
@@ -3467,7 +3497,9 @@
       <c r="C21" s="93">
         <v>0.0778</v>
       </c>
-      <c r="D21" s="92"/>
+      <c r="D21" s="92">
+        <v>0.0125</v>
+      </c>
       <c r="E21" s="93">
         <v>0.0797</v>
       </c>
@@ -3483,7 +3515,9 @@
       <c r="C22" s="93">
         <v>0.1436</v>
       </c>
-      <c r="D22" s="92"/>
+      <c r="D22" s="92">
+        <v>0.0192</v>
+      </c>
       <c r="E22" s="93">
         <v>0.1314</v>
       </c>
@@ -3499,7 +3533,9 @@
       <c r="C23" s="93">
         <v>0.0123</v>
       </c>
-      <c r="D23" s="92"/>
+      <c r="D23" s="92">
+        <v>0.018</v>
+      </c>
       <c r="E23" s="93">
         <v>0.0158</v>
       </c>
@@ -3515,7 +3551,9 @@
       <c r="C24" s="93">
         <v>0.0462</v>
       </c>
-      <c r="D24" s="92"/>
+      <c r="D24" s="92">
+        <v>0.0262</v>
+      </c>
       <c r="E24" s="93">
         <v>0.0294</v>
       </c>
@@ -3531,7 +3569,9 @@
       <c r="C25" s="93">
         <v>0.0217</v>
       </c>
-      <c r="D25" s="92"/>
+      <c r="D25" s="92">
+        <v>0.0155</v>
+      </c>
       <c r="E25" s="93">
         <v>0.0129</v>
       </c>
@@ -3547,7 +3587,9 @@
       <c r="C26" s="93">
         <v>0.0649</v>
       </c>
-      <c r="D26" s="92"/>
+      <c r="D26" s="92">
+        <v>0.0165</v>
+      </c>
       <c r="E26" s="93">
         <v>0.0458</v>
       </c>
@@ -3563,7 +3605,9 @@
       <c r="C27" s="93">
         <v>0.0174</v>
       </c>
-      <c r="D27" s="92"/>
+      <c r="D27" s="92">
+        <v>0.018</v>
+      </c>
       <c r="E27" s="93">
         <v>0.015</v>
       </c>
@@ -3579,7 +3623,9 @@
       <c r="C28" s="93">
         <v>0.0402</v>
       </c>
-      <c r="D28" s="92"/>
+      <c r="D28" s="92">
+        <v>0.0205</v>
+      </c>
       <c r="E28" s="93">
         <v>0.0361</v>
       </c>
@@ -3595,7 +3641,9 @@
       <c r="C29" s="93">
         <v>0.0502</v>
       </c>
-      <c r="D29" s="92"/>
+      <c r="D29" s="92">
+        <v>0.0213</v>
+      </c>
       <c r="E29" s="93">
         <v>0.0405</v>
       </c>
@@ -3611,7 +3659,9 @@
       <c r="C30" s="93">
         <v>0.0182</v>
       </c>
-      <c r="D30" s="92"/>
+      <c r="D30" s="92">
+        <v>0.0155</v>
+      </c>
       <c r="E30" s="93">
         <v>0.0173</v>
       </c>
@@ -3627,7 +3677,9 @@
       <c r="C31" s="93">
         <v>0.0438</v>
       </c>
-      <c r="D31" s="92"/>
+      <c r="D31" s="92">
+        <v>0.0308</v>
+      </c>
       <c r="E31" s="93">
         <v>0.0326</v>
       </c>
@@ -3643,7 +3695,9 @@
       <c r="C32" s="93">
         <v>0.0257</v>
       </c>
-      <c r="D32" s="92"/>
+      <c r="D32" s="92">
+        <v>0.0105</v>
+      </c>
       <c r="E32" s="93">
         <v>0.0175</v>
       </c>
@@ -3659,7 +3713,9 @@
       <c r="C33" s="93">
         <v>0.063</v>
       </c>
-      <c r="D33" s="92"/>
+      <c r="D33" s="92">
+        <v>0.0395</v>
+      </c>
       <c r="E33" s="93">
         <v>0.0443</v>
       </c>
